--- a/ePICreator/Flucelvax.xlsx
+++ b/ePICreator/Flucelvax.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E53FED-2F64-CF47-ABEB-ADA0FCA94273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F856EF-7F62-EA40-83A5-87AC5C225BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -514,30 +514,6 @@
   </si>
   <si>
     <t>2023-04-22T15:15:46Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&amp;lt;p class="MsoNormal" style="text-align: center;" align="center"&amp;gt;&amp;lt;strong style="mso-bidi-font-weight: normal;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;Package leaflet: Information for the user&amp;lt;/span&amp;gt;&amp;lt;/strong&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="text-align: center; line-height: normal; mso-list: skip; tab-stops: 36.0pt; background: white;" align="center"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="text-align: center;" align="center"&amp;gt;&amp;lt;strong style="mso-bidi-font-weight: normal;"&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;/strong&amp;gt;&amp;lt;strong style="mso-bidi-font-weight: normal;"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt; - suspension for injection in pre-filled syringe&amp;lt;/span&amp;gt;&amp;lt;/strong&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="text-align: center;" align="center"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Influenza vaccine (surface antigen, inactivated, prepared in cell cultures)&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="line-height: normal; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="line-height: normal; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-no-proof: yes;"&amp;gt;&amp;lt;img src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACEAAAAdCAMAAAATgvWLAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAADVUExURQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5lUhEAAABGdFJOUwACBgcICQ8QERITFB8gISInKCktODo8P0FWV1haXGBib3N1d3t8foCTlJaYm52ztLW3uczP0NLT1tfj5OXm5+/09vf8/f5E4IZ9AAAACXBIWXMAABcRAAAXEQHKJvM/AAAA8UlEQVQ4T33T11bCQBSF4QMqxIZGsGChCDZUNMZKESRx3v+RTDK/OhkGvqtz9j43s7IiffW9jOpLdaKWmVRFbpjdrkVke8DiMthKLqTN5tJOD8QLWeeFXnYh9ZjAFtf1gRQeSWwPBS6kNiXKm9boE+4X92hTlRGhabxDmzknNXXotNIz8b+XMh2O7RfHJzS/ivaLgxWaP/tfVNrsgNzQo9NuSU275jce+qQ5XdrUBVme90qt1Ns6meU04iA6I7GtBlw8rZHMOdQvnh2xO9xlF/dsLv44OfjcY3O6TC6umN023tXHJvMCjbjJtEi5xQ8AkR/GwoMJ171XSgAAAABJRU5ErkJggg==" annotationsrc="~/_entity/annotation/76a10366-26e0-ed11-a7c6-000d3aaa0403" /&amp;gt;This medicine is subject to additional monitoring. This will allow quick identification of new safety information. You can help by reporting any side effects you may get. See the end of section 4 for how to report side effects.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="line-height: normal; mso-hyphenate: none; tab-stops: 36.0pt;"&amp;gt;&amp;lt;strong style="mso-bidi-font-weight: normal;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/strong&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="line-height: normal; mso-hyphenate: none; tab-stops: 36.0pt;"&amp;gt;&amp;lt;strong style="mso-bidi-font-weight: normal;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;Read all of this leaflet carefully before you receive this medicine because it contains important information for you.&amp;lt;/span&amp;gt;&amp;lt;/strong&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="text-indent: -1.0cm; line-height: normal; mso-list: l0 level1 lfo1; tab-stops: 36.0pt; margin: 0cm -.1pt .0001pt 1.0cm;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;-&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;Keep this leaflet. You may need to read it again. &amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="text-indent: -1.0cm; line-height: normal; mso-list: l0 level1 lfo1; tab-stops: 36.0pt; margin: 0cm -.1pt .0001pt 1.0cm;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;-&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;If you have any further questions, ask your doctor, pharmacist or nurse.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-left: 1.0cm; text-indent: -1.0cm; line-height: normal; mso-list: l0 level1 lfo1;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;-&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;If you get any side effects, talk to your doctor, pharmacist or nurse.&amp;lt;/span&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; color: red;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt;"&amp;gt;This includes any possible side effects not listed in this leaflet. See section 4.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&amp;gt;&amp;lt;strong style="mso-bidi-font-weight: normal;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;What is in this leaflet&amp;lt;/span&amp;gt;&amp;lt;/strong&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;1.&amp;lt;span style="mso-tab-count: 1;"&amp;gt;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;What &amp;lt;/span&amp;gt;&amp;lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra &amp;lt;/span&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;is and what it is used for &amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;2.&amp;lt;span style="mso-tab-count: 1;"&amp;gt;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;What you need to know before you &amp;lt;span class="SmPC-PLtextChar"&amp;gt;receive &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;3.&amp;lt;span style="mso-tab-count: 1;"&amp;gt;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;How &amp;lt;/span&amp;gt;&amp;lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra &amp;lt;/span&amp;gt;&amp;lt;span class="SmPC-PLtextChar"&amp;gt;&amp;lt;span lang="EN-GB"&amp;gt;is given&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;4.&amp;lt;span style="mso-tab-count: 1;"&amp;gt;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;Possible side effects &amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; tab-stops: 21.3pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;5.&amp;lt;span style="mso-tab-count: 1;"&amp;gt;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;How to store &amp;lt;/span&amp;gt;&amp;lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra &amp;lt;/span&amp;gt;&amp;lt;span style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;lt;span style="mso-spacerun: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; tab-stops: 21.3pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;6.&amp;lt;span style="mso-tab-count: 1;"&amp;gt;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;Contents of the pack and other information&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;&lt;/div&gt;
-              </t>
   </si>
   <si>
     <t xml:space="preserve">   &lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;is a vaccine against flu (influenza). &amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;span class="SmPC-PLtextChar"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;is prepared in cell cultures, and, therefore, is egg-free.&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
@@ -634,6 +610,30 @@
   </si>
   <si>
     <t>0.01</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;    &lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p class="MsoNormal" style="text-align: center;" align="center"&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;Package leaflet: Information for the user&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="text-align: center; line-height: normal; mso-list: skip; tab-stops: 36.0pt; background: white;" align="center"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/p&gt;
+&lt;p class="SmPC-PLtext" style="text-align: center;" align="center"&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&gt;Flucelvax Tetra&lt;/span&gt;&lt;/strong&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span lang="EN-GB" style="color: windowtext;"&gt; - suspension for injection in pre-filled syringe&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p class="SmPC-PLtext" style="text-align: center;" align="center"&gt;&lt;span lang="EN-GB" style="color: windowtext;"&gt;Influenza vaccine (surface antigen, inactivated, prepared in cell cultures)&lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="line-height: normal; tab-stops: 36.0pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="line-height: normal; tab-stops: 36.0pt;"&gt;&lt;span lang="EN-GB" style="mso-no-proof: yes;"&gt;&lt;img src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACEAAAAdCAMAAAATgvWLAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAADVUExURQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5lUhEAAABGdFJOUwACBgcICQ8QERITFB8gISInKCktODo8P0FWV1haXGBib3N1d3t8foCTlJaYm52ztLW3uczP0NLT1tfj5OXm5+/09vf8/f5E4IZ9AAAACXBIWXMAABcRAAAXEQHKJvM/AAAA8UlEQVQ4T33T11bCQBSF4QMqxIZGsGChCDZUNMZKESRx3v+RTDK/OhkGvqtz9j43s7IiffW9jOpLdaKWmVRFbpjdrkVke8DiMthKLqTN5tJOD8QLWeeFXnYh9ZjAFtf1gRQeSWwPBS6kNiXKm9boE+4X92hTlRGhabxDmzknNXXotNIz8b+XMh2O7RfHJzS/ivaLgxWaP/tfVNrsgNzQo9NuSU275jce+qQ5XdrUBVme90qt1Ns6meU04iA6I7GtBlw8rZHMOdQvnh2xO9xlF/dsLv44OfjcY3O6TC6umN023tXHJvMCjbjJtEi5xQ8AkR/GwoMJ171XSgAAAABJRU5ErkJggg==" annotationsrc="~/_entity/annotation/76a10366-26e0-ed11-a7c6-000d3aaa0403" /&gt;This medicine is subject to additional monitoring. This will allow quick identification of new safety information. You can help by reporting any side effects you may get. See the end of section 4 for how to report side effects.&lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="line-height: normal; mso-hyphenate: none; tab-stops: 36.0pt;"&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="line-height: normal; mso-hyphenate: none; tab-stops: 36.0pt;"&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;Read all of this leaflet carefully before you receive this medicine because it contains important information for you.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="text-indent: -1.0cm; line-height: normal; mso-list: l0 level1 lfo1; tab-stops: 36.0pt; margin: 0cm -.1pt .0001pt 1.0cm;"&gt;&lt;!-- [if !supportLists]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&lt;span style="mso-list: Ignore;"&gt;-&lt;span style="font: 7.0pt 'Times New Roman';"&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;!--[endif]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;Keep this leaflet. You may need to read it again. &lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="text-indent: -1.0cm; line-height: normal; mso-list: l0 level1 lfo1; tab-stops: 36.0pt; margin: 0cm -.1pt .0001pt 1.0cm;"&gt;&lt;!-- [if !supportLists]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&lt;span style="mso-list: Ignore;"&gt;-&lt;span style="font: 7.0pt 'Times New Roman';"&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;!--[endif]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;If you have any further questions, ask your doctor, pharmacist or nurse.&lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="margin-left: 1.0cm; text-indent: -1.0cm; line-height: normal; mso-list: l0 level1 lfo1;"&gt;&lt;!-- [if !supportLists]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt;"&gt;&lt;span style="mso-list: Ignore;"&gt;-&lt;span style="font: 7.0pt 'Times New Roman';"&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;!--[endif]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;If you get any side effects, talk to your doctor, pharmacist or nurse.&lt;/span&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; color: red;"&gt; &lt;/span&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt;"&gt;This includes any possible side effects not listed in this leaflet. See section 4.&lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; tab-stops: 36.0pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; tab-stops: 36.0pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;What is in this leaflet&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p class="MsoNormal"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;1.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;What &lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&gt;Flucelvax Tetra &lt;/span&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;is and what it is used for &lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;2.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;What you need to know before you &lt;span class="SmPC-PLtextChar"&gt;receive &lt;/span&gt;&lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&gt;Flucelvax Tetra&lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt; &lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;3.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;How &lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&gt;Flucelvax Tetra &lt;/span&gt;&lt;span class="SmPC-PLtextChar"&gt;&lt;span lang="EN-GB"&gt;is given&lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt; &lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;4.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;Possible side effects &lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;5.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;How to store &lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&gt;Flucelvax Tetra &lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&lt;span style="mso-spacerun: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;6.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;Contents of the pack and other information&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;
+                       &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1423,7 +1423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>151</v>
@@ -1444,25 +1444,25 @@
         <v>157</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -1698,7 +1698,7 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -1746,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
@@ -1770,7 +1770,7 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
@@ -1794,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>

--- a/ePICreator/Flucelvax.xlsx
+++ b/ePICreator/Flucelvax.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F856EF-7F62-EA40-83A5-87AC5C225BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42891DDF-C80A-BD47-9FCD-DA682507222C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>mg</t>
-  </si>
-  <si>
-    <t>title</t>
   </si>
   <si>
     <t>role</t>
@@ -495,18 +492,6 @@
     <t>hhtttp://asdsadad.com</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>asdad</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
     <t>flucelvax</t>
   </si>
   <si>
@@ -516,93 +501,6 @@
     <t>2023-04-22T15:15:46Z</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;is a vaccine against flu (influenza). &amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;span class="SmPC-PLtextChar"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;is prepared in cell cultures, and, therefore, is egg-free.&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;When a person is given the vaccine, the immune system (the body&amp;#8217;s natural defence system) will produce its own protection against the influenza virus. None of the ingredients in the vaccine can cause flu.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;is used to prevent flu in adults and children from 2 years of age.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;The vaccine targets four strains of influenza virus following the recommendations by the World Health Organisation for the 2022/2023 SEASON.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;&lt;/div&gt;
-          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;If you are allergic to:&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 36.0pt; text-indent: -18.0pt; mso-list: l0 level1 lfo1; tab-stops: 42.55pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="font-family: Symbol; mso-fareast-font-family: Symbol; mso-bidi-font-family: Symbol; color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#183;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;the active ingredients or any of the other ingredients of this medicine (listed in section&amp;#160;6)&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 36.0pt; text-indent: -18.0pt; mso-list: l0 level1 lfo1; tab-stops: 42.55pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="font-family: Symbol; mso-fareast-font-family: Symbol; mso-bidi-font-family: Symbol; color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#183;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;beta-propiolactone, cetyltrimethylammonium bromide, or polysorbate&amp;#160;80, which are trace residues from the manufacturing process.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;&lt;/div&gt;
-                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     &lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&amp;lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;Like all medicines, this medicine can cause side effects, although not everybody gets them.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;The following side effects have been reported during clinical trials and during general use:&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="page-break-after: avoid;"&amp;gt;&amp;lt;strong style="mso-bidi-font-weight: normal;"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Very serious side effects&amp;lt;/span&amp;gt;&amp;lt;/strong&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Tell your doctor immediately or go to the casualty department at your nearest hospital if you experience the following side effect &amp;#8211; you may need urgent medical attention or hospitalisation:&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Difficulty in breathing, dizziness, a weak and rapid pulse and skin rash which are symptoms of an anaphylactic reaction (a very severe allergic reaction)&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="page-break-after: avoid;"&amp;gt;&amp;lt;strong style="mso-bidi-font-weight: normal;"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Serious side effects&amp;lt;/span&amp;gt;&amp;lt;/strong&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Tell your doctor immediately if you experience any of the following side effects &amp;#8211; you may need medical attention:&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;You feel weak, you have difficulty moving around or you experience numbness or tingling in your limbs. These can be symptoms of &amp;lt;span style="mso-spacerun: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;Guillain-Barr&amp;#233; syndrome (GBS), an autoimmune disease caused by your body&amp;#8217;s own immune system.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Extensive swelling of injected limb&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;strong style="mso-bidi-font-weight: normal;"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Mild side effects&amp;lt;/span&amp;gt;&amp;lt;/strong&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;u&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Very common&amp;lt;/span&amp;gt;&amp;lt;/u&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt; (may affect more than 1 in 10 people):&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Injection site pain, bruising, reddening and hardening or swelling at the site of the injection&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Headache&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Muscle pain &amp;lt;span style="mso-spacerun: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Tiredness &amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Loss of appetite&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Irritability (only reported in children from 2 to &amp;lt; 6 years)&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Sleepiness (only reported in children 2 to &amp;lt; 6 years)&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Hardening or swelling at the site of the injection, headache, muscle pain, and tiredness were common in the elderly.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Bruising at the site of the injection was common in adults, eldery and children 9 to &amp;lt; 18 years.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Headache was common in the elderly.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Loss of appetite was common in adults, eldery and children 9 to &amp;lt; 18 years.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="page-break-after: avoid;"&amp;gt;&amp;lt;u&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Common&amp;lt;/span&amp;gt;&amp;lt;/u&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt; (may affect up to 1 in 10 people):&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Nausea, vomiting, diarrhoea &amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Joint pain&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Shivering&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Change in eating habits (only reported in children from 2 to &amp;lt; 6 years)&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Fever (&amp;lt;u&amp;gt;&amp;gt;&amp;lt;/u&amp;gt; 38&amp;#176;C)&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Vomiting was uncommon in the elderly.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Fever was uncommon in adults and the elderly.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;u&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Not known&amp;lt;/span&amp;gt;&amp;lt;/u&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt; (frequency cannot be estimated from the available data):&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Numbness and tingling sensation (paraesthesia)&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 14.2pt; text-indent: -14.2pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#8226;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Generalised skin reactions including itching, bumps on the skin (pruritis, urticaria) or non-specific rash &amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;&lt;/div&gt;
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&amp;lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;Keep this&amp;#160;&amp;lt;span class="SmPC-PLtextChar"&amp;gt;vaccine&amp;lt;/span&amp;gt; out of the sight and reach of children.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Store in a refrigerator (2 &amp;#176;C&amp;#160;to&amp;#160;8 &amp;#176;C). Do not freeze.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Keep the pre-filled syringe in the outer carton in order to protect from light.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;Do not use this &amp;lt;span class="SmPC-PLtextChar"&amp;gt;vaccine&amp;lt;/span&amp;gt; after the expiry date which is stated on the label and carton after &amp;lt;span class="SmPC-PLtextChar"&amp;gt;EXP&amp;lt;/span&amp;gt;. The expiry date refers to the last day of that month.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;Do not throw away any medicines via wastewater or household waste. Ask your pharmacist how to throw away medicines you no longer use. These measures will help protect the environment.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;&lt;/div&gt;
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;is a suspension for injection in a pre-filled syringe (ready to use syringe). &amp;lt;br /&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;is a clear to slightly opalescent suspension.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;A single syringe contains 0.5&amp;#160;ml of suspension for injection.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;is available in packs containing 1 pre-filled syringe with or without needle or 10 pre-filled syringes with or without needles.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext"&amp;gt;&amp;lt;span lang="EN-GB" style="color: windowtext;"&amp;gt;Not all pack sizes may be marketed.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;&lt;/div&gt;
-                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&amp;lt;p class="MsoNormal" style="line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;Talk to your doctor, pharmacist or nurse before &amp;lt;span class="SmPC-PLtextChar"&amp;gt;receiving&amp;lt;/span&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span class="SmPC-PLtextChar"&amp;gt;&amp;lt;span lang="EN-GB"&amp;gt;.&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&amp;gt;&amp;lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;u&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;BEFORE receiving the vaccine&amp;lt;/span&amp;gt;&amp;lt;/u&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 18.0pt; text-indent: -18.0pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span style="font-family: Symbol; mso-fareast-font-family: Symbol; mso-bidi-font-family: Symbol; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#183;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Your &amp;lt;span style="mso-bidi-font-weight: bold;"&amp;gt;doctor or nurse&amp;lt;/span&amp;gt; will make sure that appropriate medical treatment and supervision is readily available in case of a rare anaphylactic reaction (a very severe allergic reaction with symptoms such as difficulty in breathing, dizziness, a weak and rapid pulse and skin rash) following the administration. This reaction may occur with &amp;lt;/span&amp;gt;&amp;lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Flucelvax Tetra&amp;lt;/span&amp;gt;&amp;lt;span class="SmPC-PLtextChar"&amp;gt;&amp;lt;span style="color: windowtext;"&amp;gt; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;as with all vaccines that are injected.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 18.0pt; text-indent: -18.0pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span style="font-family: Symbol; mso-fareast-font-family: Symbol; mso-bidi-font-family: Symbol; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#183;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;You should tell your doctor if you have an acute illness associated with fever. Your doctor may decide to delay your vaccination until your fever is gone.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 18.0pt; text-indent: -18.0pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span style="font-family: Symbol; mso-fareast-font-family: Symbol; mso-bidi-font-family: Symbol; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#183;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US; mso-bidi-font-weight: bold;"&amp;gt;You&amp;lt;/span&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt; should tell your doctor if your immune system is impaired, or if you are undergoing treatment which affects the immune system, e.g. with medicine against cancer (chemotherapy) or corticosteroid medicines (see section &amp;#8220;Other medicines and Flucelvax Tetra&amp;#8221;).&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 18.0pt; text-indent: -18.0pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span style="font-family: Symbol; mso-fareast-font-family: Symbol; mso-bidi-font-family: Symbol; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#183;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;You should tell your doctor if you have a bleeding problem or bruise easily.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="margin-left: 18.0pt; text-indent: -18.0pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span style="font-family: Symbol; mso-fareast-font-family: Symbol; mso-bidi-font-family: Symbol; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#183;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Fainting can occur following, or even before, any needle injection, therefore tell the doctor or nurse if you fainted with a previous injection.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
-&amp;lt;p class="SmPC-PLtext" style="tab-stops: 36.0pt;"&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;As with all vaccines, Flucelvax Tetra may not fully protect all persons who are vaccinated.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;&lt;/div&gt;
-                    </t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -612,28 +510,154 @@
     <t>0.01</t>
   </si>
   <si>
-    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;    &lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p class="MsoNormal" style="text-align: center;" align="center"&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;Package leaflet: Information for the user&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="text-align: center; line-height: normal; mso-list: skip; tab-stops: 36.0pt; background: white;" align="center"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/p&gt;
-&lt;p class="SmPC-PLtext" style="text-align: center;" align="center"&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span style="mso-fareast-font-family: 'MS Mincho'; color: windowtext; mso-ansi-language: EN-US;"&gt;Flucelvax Tetra&lt;/span&gt;&lt;/strong&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span lang="EN-GB" style="color: windowtext;"&gt; - suspension for injection in pre-filled syringe&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="SmPC-PLtext" style="text-align: center;" align="center"&gt;&lt;span lang="EN-GB" style="color: windowtext;"&gt;Influenza vaccine (surface antigen, inactivated, prepared in cell cultures)&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="line-height: normal; tab-stops: 36.0pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="line-height: normal; tab-stops: 36.0pt;"&gt;&lt;span lang="EN-GB" style="mso-no-proof: yes;"&gt;&lt;img src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACEAAAAdCAMAAAATgvWLAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAADVUExURQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5lUhEAAABGdFJOUwACBgcICQ8QERITFB8gISInKCktODo8P0FWV1haXGBib3N1d3t8foCTlJaYm52ztLW3uczP0NLT1tfj5OXm5+/09vf8/f5E4IZ9AAAACXBIWXMAABcRAAAXEQHKJvM/AAAA8UlEQVQ4T33T11bCQBSF4QMqxIZGsGChCDZUNMZKESRx3v+RTDK/OhkGvqtz9j43s7IiffW9jOpLdaKWmVRFbpjdrkVke8DiMthKLqTN5tJOD8QLWeeFXnYh9ZjAFtf1gRQeSWwPBS6kNiXKm9boE+4X92hTlRGhabxDmzknNXXotNIz8b+XMh2O7RfHJzS/ivaLgxWaP/tfVNrsgNzQo9NuSU275jce+qQ5XdrUBVme90qt1Ns6meU04iA6I7GtBlw8rZHMOdQvnh2xO9xlF/dsLv44OfjcY3O6TC6umN023tXHJvMCjbjJtEi5xQ8AkR/GwoMJ171XSgAAAABJRU5ErkJggg==" annotationsrc="~/_entity/annotation/76a10366-26e0-ed11-a7c6-000d3aaa0403" /&gt;This medicine is subject to additional monitoring. This will allow quick identification of new safety information. You can help by reporting any side effects you may get. See the end of section 4 for how to report side effects.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="line-height: normal; mso-hyphenate: none; tab-stops: 36.0pt;"&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="line-height: normal; mso-hyphenate: none; tab-stops: 36.0pt;"&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;Read all of this leaflet carefully before you receive this medicine because it contains important information for you.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="text-indent: -1.0cm; line-height: normal; mso-list: l0 level1 lfo1; tab-stops: 36.0pt; margin: 0cm -.1pt .0001pt 1.0cm;"&gt;&lt;!-- [if !supportLists]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&lt;span style="mso-list: Ignore;"&gt;-&lt;span style="font: 7.0pt 'Times New Roman';"&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;!--[endif]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;Keep this leaflet. You may need to read it again. &lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="text-indent: -1.0cm; line-height: normal; mso-list: l0 level1 lfo1; tab-stops: 36.0pt; margin: 0cm -.1pt .0001pt 1.0cm;"&gt;&lt;!-- [if !supportLists]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&lt;span style="mso-list: Ignore;"&gt;-&lt;span style="font: 7.0pt 'Times New Roman';"&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;!--[endif]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;If you have any further questions, ask your doctor, pharmacist or nurse.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="margin-left: 1.0cm; text-indent: -1.0cm; line-height: normal; mso-list: l0 level1 lfo1;"&gt;&lt;!-- [if !supportLists]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt;"&gt;&lt;span style="mso-list: Ignore;"&gt;-&lt;span style="font: 7.0pt 'Times New Roman';"&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;!--[endif]--&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;If you get any side effects, talk to your doctor, pharmacist or nurse.&lt;/span&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; color: red;"&gt; &lt;/span&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt;"&gt;This includes any possible side effects not listed in this leaflet. See section 4.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; tab-stops: 36.0pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; tab-stops: 36.0pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="margin-right: -.1pt; line-height: normal; mso-list: skip; tab-stops: 36.0pt;"&gt;&lt;strong style="mso-bidi-font-weight: normal;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;What is in this leaflet&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="MsoNormal"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;1.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;What &lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&gt;Flucelvax Tetra &lt;/span&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;is and what it is used for &lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;2.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;What you need to know before you &lt;span class="SmPC-PLtextChar"&gt;receive &lt;/span&gt;&lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&gt;Flucelvax Tetra&lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt; &lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;3.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;How &lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&gt;Flucelvax Tetra &lt;/span&gt;&lt;span class="SmPC-PLtextChar"&gt;&lt;span lang="EN-GB"&gt;is given&lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt; &lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; mso-list: skip; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;4.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;Possible side effects &lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;5.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;How to store &lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-fareast-font-family: 'MS Mincho'; mso-ansi-language: EN-US;"&gt;Flucelvax Tetra &lt;/span&gt;&lt;span style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;&lt;span style="mso-spacerun: yes;"&gt;&amp;#160;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal" style="margin-right: -1.45pt; line-height: normal; tab-stops: 21.3pt;"&gt;&lt;span lang="EN-GB" style="mso-bidi-font-size: 11.0pt; mso-no-proof: yes;"&gt;6.&lt;span style="mso-tab-count: 1;"&gt;&amp;#160;&amp;#160;&amp;#160; &lt;/span&gt;Contents of the pack and other information&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;
-                       &lt;/div&gt;</t>
+    <t>Flucelvax</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/rmswi/</t>
+  </si>
+  <si>
+    <t>jkl</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;What is in this leaflet&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;What Flucelvax Tetra is and what it is used for&lt;/li&gt;
+&lt;li&gt;What you need to know before you receive Flucelvax Tetra&lt;/li&gt;
+&lt;li&gt;How Flucelvax Tetra is given&lt;/li&gt;
+&lt;li&gt;Possible side effects&lt;/li&gt;
+&lt;li&gt;How to store Flucelvax Tetra&lt;/li&gt;
+&lt;li&gt;Contents of the pack and other information&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Read all of this leaflet carefully before you receive this medicine because it contains important information for you.&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Keep this leaflet. You may need to read it again.&lt;/li&gt;
+&lt;li&gt;If you have any further questions, ask your doctor, pharmacist or nurse.&lt;/li&gt;
+&lt;li&gt;If you get any side effects, talk to your doctor, pharmacist or nurse. This includes any possible side effects not listed in this leaflet. See section 4.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Flucelvax Tetra is a vaccine against flu (influenza). Flucelvax Tetra is prepared in cell cultures, and, therefore, is egg-free. &lt;/p&gt;
+&lt;p&gt;When a person is given the vaccine, the immune system (the body’s natural defence system) will produce its own protection against the influenza virus. None of the ingredients in the vaccine can cause flu.&lt;/p&gt;
+&lt;p&gt;Flucelvax Tetra is used to prevent flu in adults and children from 2 years of age.&lt;/p&gt;
+&lt;p&gt;The vaccine targets four strains of influenza virus following the recommendations by the World Health Organisation for the 2022/2023 SEASON.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;You should not receive Flucelvax Tetra:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;If you are allergic to:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;the active ingredients or any of the other ingredients of this medicine (listed in section 6)&lt;/li&gt;
+&lt;li&gt;beta-propiolactone, cetyltrimethylammonium bromide, or polysorbate 80, which are trace
+residues from the manufacturing process.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Warnings and precautions&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Talk to your doctor, pharmacist or nurse before receiving Flucelvax Tetra.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;BEFORE receiving the vaccine&lt;/em&gt;. &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Your doctor or nurse will make sure that appropriate medical treatment and supervision is readily
+available in case of a rare anaphylactic reaction (a very severe allergic reaction with symptoms
+such as difficulty in breathing, dizziness, a weak and rapid pulse and skin rash) following the
+administration. This reaction may occur with Flucelvax Tetra as with all vaccines that are injected.&lt;/li&gt;
+&lt;li&gt;You should tell your doctor if you have an acute illness associated with fever. Your doctor may
+decide to delay your vaccination until your fever is gone.&lt;/li&gt;
+&lt;li&gt;You should tell your doctor if your immune system is impaired, or if you are undergoing treatment
+which affects the immune system, e.g. with medicine against cancer (chemotherapy) or
+corticosteroid medicines (see section “Other medicines and Flucelvax Tetra”).&lt;/li&gt;
+&lt;li&gt;You should tell your doctor if you have a bleeding problem or bruise easily.&lt;/li&gt;
+&lt;li&gt;Fainting can occur following, or even before, any needle injection, therefore tell the doctor or
+nurse if you fainted with a previous injection.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;As with all vaccines, Flucelvax Tetra may not fully protect all persons who are vaccinated.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Other medicines and Flucelvax Tetra&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Tell your doctor or nurse if you are using, have recently used or might use any other medicines, including medicines obtained without a prescription or if you have recently received any other vaccine.
+Flucelvax Tetra may be given at the same time as other vaccines.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Pregnancy and breast-feeding&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Pregnancy:&lt;/strong&gt; &lt;/p&gt;
+&lt;p&gt;Tell your doctor if you are pregnant, think you may be pregnant or are planning to have a baby. Influenza vaccines may be given in any trimester of pregnancy.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Breast-feeding:&lt;/strong&gt; &lt;/p&gt;
+&lt;p&gt;Use of Flucelvax Tetra during breast-feeding has not been studied. Flucelvax Tetra may be given during breast-feeding.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Driving and using machines&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Flucelvax Tetra has no or negligible effect on your ability to drive and use machines.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Flucelvax Tetra contains sodium chloride and potassium chloride&lt;/strong&gt; &lt;/p&gt;
+&lt;p&gt;This vaccine contains less than 1 mmol sodium (23 mg) per dose, i.e. essentially ‘sodium free’.
+This vaccine contains potassium, less than 1 mmol (39 mg) per dose, i.e. essentially ‘potassium free’&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Flucelvax Tetra is given to you by your doctor or nurse as an injection into the muscle at the top of the upper arm (deltoid muscle).&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Adults and children from 2 years of age:&lt;/em&gt; &lt;/p&gt;
+&lt;p&gt;One dose of 0.5 ml&lt;/p&gt;
+&lt;p&gt;If your child is younger than 9 years of age and has not been previously vaccinated against flu, a second dose should be given after at least 4 weeks.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like all medicines, this medicine can cause side effects, although not everybody gets them. The following side effects have been reported during clinical trials and during general use:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Very serious side effects&lt;/strong&gt; &lt;/p&gt;
+&lt;p&gt;Tell your doctor immediately or go to the casualty department at your nearest hospital if you experience the following side effect – you may need urgent medical attention or hospitalisation:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Difficulty in breathing, dizziness, a weak and rapid pulse and skin rash which are symptoms of an anaphylactic reaction (a very severe allergic reaction)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Serious side effects&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Tell your doctor immediately if you experience any of the following side effects – you may need medical attention:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;You feel weak, you have difficulty moving around or you experience numbness or tingling in your limbs. These can be symptoms of Guillain-Barré syndrome (GBS), an autoimmune disease caused by your body’s own immune system.&lt;/li&gt;
+&lt;li&gt;Extensive swelling of injected limb&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Mild side effects&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Very common&lt;/em&gt; (may affect more than 1 in 10 people):&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Injection site pain, bruising, reddening and hardening or swelling at the site of the injection&lt;/li&gt;
+&lt;li&gt;Headache&lt;/li&gt;
+&lt;li&gt;Muscle pain&lt;/li&gt;
+&lt;li&gt;Tiredness&lt;/li&gt;
+&lt;li&gt;Loss of appetite&lt;/li&gt;
+&lt;li&gt;Irritability (only reported in children from 2 to &amp;lt; 6 years)&lt;/li&gt;
+&lt;li&gt;Sleepiness (only reported in children 2 to &amp;lt; 6 years)
+Hardening or swelling at the site of the injection, headache, muscle pain, and tiredness were common in the elderly.
+Bruising at the site of the injection was common in adults, eldery and children 9 to &amp;lt; 18 years. Headache was common in the elderly.
+Loss of appetite was common in adults, eldery and children 9 to &amp;lt; 18 years.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;em&gt;Common&lt;/em&gt; (may affect up to 1 in 10 people):&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Nausea, vomiting, diarrhoea&lt;/li&gt;
+&lt;li&gt;Joint pain&lt;/li&gt;
+&lt;li&gt;Shivering&lt;/li&gt;
+&lt;li&gt;Change in eating habits (only reported in children from 2 to &amp;lt; 6 years)&lt;/li&gt;
+&lt;li&gt;Fever (&amp;gt; 38°C)
+Vomiting was uncommon in the elderly.
+Fever was uncommon in adults and the elderly.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;em&gt;Not known&lt;/em&gt; (frequency cannot be estimated from the available data):&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Numbness and tingling sensation (paraesthesia)&lt;/li&gt;
+&lt;li&gt;Generalised skin reactions including itching, bumps on the skin (pruritis, urticaria) or non-specific
+rash&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Reporting of side effects&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;If you get any side effects, talk to your doctor, pharmacist or nurse. This includes any possible side effects not listed in this leaflet. You can also report side effects directly via the national reporting system listed in Appendix V.* By reporting side effects, you can help provide more information on the safety of this medicine.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Keep this vaccine out of the sight and reach of children. Store in a refrigerator (2 °C to 8 °C). &lt;/p&gt;
+&lt;p&gt;Do not freeze.&lt;/p&gt;
+&lt;p&gt;Keep the pre-filled syringe in the outer carton in order to protect from light.&lt;/p&gt;
+&lt;p&gt;Do not use this vaccine after the expiry date which is stated on the label and carton after EXP. The expiry date refers to the last day of that month.&lt;/p&gt;
+&lt;p&gt;Do not throw away any medicines via wastewater or household waste. Ask your pharmacist how to throw away medicines you no longer use. These measures will help protect the environment.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;What Flucelvax Tetra contains&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The active substances are influenza virus surface antigens (haemagglutinin and neuraminidase), inactivated, of the following strains*:&lt;/p&gt;
+&lt;p&gt;A/Wisconsin/588/2019 (H1N1)pdm09-like strain (A/Delaware/55/2019 CVR-45) 15 micrograms HA**&lt;/p&gt;
+&lt;p&gt;A/Darwin/6/2021 (H3N2)-like strain (A/Darwin/11/2021, wild type) 15 micrograms HA** &lt;/p&gt;
+&lt;p&gt;B/Austria/1359417/2021-like strain (B/Singapore/WUH4618/2021, wild type) 15 micrograms HA** &lt;/p&gt;
+&lt;p&gt;B/Phuket/3073/2013-like strain (B/Singapore/INFTT-16-0610/2016, wild type) 15 micrograms HA**&lt;/p&gt;
+&lt;p&gt;per 0.5 ml dose&lt;/p&gt;
+&lt;p&gt;..............................................&lt;/p&gt;
+&lt;p&gt;* propagated in Madin Darby Canine Kidney (MDCK) cells (this is the special cell culture in
+which the influenza virus is grown); &lt;/p&gt;
+&lt;p&gt;** haemagglutinin&lt;/p&gt;
+&lt;p&gt;This vaccine complies with the World Health Organisation (WHO) recommendation (northern hemisphere) and EU recommendation for the 2022/2023 SEASON.&lt;/p&gt;
+&lt;p&gt;The other ingredients are: sodium chloride, potassium chloride, magnesium chloride hexahydrate, disodium phosphate dihydrate, potassium dihydrogen phosphate and water for injections.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;What Flucelvax Tetra looks like and contents of the pack&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Flucelvax Tetra is a suspension for injection in a pre-filled syringe (ready to use syringe).&lt;/p&gt;&lt;p&gt;Flucelvax Tetra is a clear to slightly opalescent suspension.&lt;br&gt;A single syringe contains 0.5 ml of suspension for injection.&lt;br&gt;Flucelvax Tetra is available in packs containing 1 pre-filled syringe with or without needle or 10 pre- filled syringes with or without needles.&lt;/p&gt;&lt;p&gt;Not all pack sizes may be marketed.  &lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1060,19 +1084,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -1081,31 +1105,31 @@
     <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1149,31 +1173,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
         <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
       </c>
       <c r="N1" t="s">
         <v>8</v>
@@ -1181,13 +1205,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1198,13 +1222,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1212,13 +1236,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
         <v>121</v>
       </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1226,13 +1250,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
         <v>123</v>
       </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1263,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1277,13 +1301,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1326,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -1354,49 +1378,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="15.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="15.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>75</v>
@@ -1416,53 +1440,50 @@
       <c r="O1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1506,31 +1527,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -1539,10 +1560,10 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1551,10 +1572,10 @@
         <v>100000072072</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1563,16 +1584,16 @@
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
         <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1581,10 +1602,10 @@
         <v>100000072082</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -1593,16 +1614,16 @@
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
         <v>121</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1611,10 +1632,10 @@
         <v>100000072082</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -1623,16 +1644,16 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
         <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1641,10 +1662,10 @@
         <v>100000072082</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -1653,22 +1674,22 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
-        <v>113</v>
-      </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -1683,22 +1704,22 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
@@ -1707,22 +1728,22 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
         <v>127</v>
       </c>
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -1731,22 +1752,22 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
@@ -1755,22 +1776,22 @@
     <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
         <v>129</v>
       </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
@@ -1779,22 +1800,22 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
@@ -1845,13 +1866,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -1860,22 +1881,22 @@
     <row r="2" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2">
         <v>100000074063</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>200000002150</v>
@@ -1917,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>85</v>
-      </c>
-      <c r="R1" t="s">
-        <v>86</v>
       </c>
       <c r="S1" t="s">
         <v>8</v>
@@ -1974,43 +1995,43 @@
     <row r="2" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
         <v>135</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>136</v>
       </c>
-      <c r="G2" t="s">
-        <v>137</v>
-      </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" t="s">
         <v>97</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2">
         <v>100000000000</v>
@@ -2052,25 +2073,25 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
-        <v>61</v>
-      </c>
       <c r="L1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -2079,34 +2100,34 @@
     <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
       <c r="F2">
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" t="s">
         <v>142</v>
-      </c>
-      <c r="K2" t="s">
-        <v>143</v>
       </c>
       <c r="L2">
         <v>367061</v>
@@ -2162,55 +2183,55 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="O1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" t="s">
         <v>104</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>105</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="V1" t="s">
         <v>8</v>
@@ -2219,46 +2240,46 @@
     <row r="2" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="C2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7">
         <v>43466</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2" s="6">
         <v>200000003529</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="6">
         <v>123456</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R2" s="6">
         <v>30051000</v>
@@ -2267,10 +2288,10 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2331,22 +2352,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -2355,13 +2376,13 @@
     <row r="2" spans="1:11" ht="238" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -2370,16 +2391,16 @@
         <v>43466</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
         <v>91</v>
-      </c>
-      <c r="J2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/Flucelvax.xlsx
+++ b/ePICreator/Flucelvax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42891DDF-C80A-BD47-9FCD-DA682507222C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AAD0D-A2BF-7E4D-89FF-C44A5C02D283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -307,12 +307,6 @@
     <t>100000155527</t>
   </si>
   <si>
-    <t>European Union</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
     <t>059QF0KO0R</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
   </si>
   <si>
     <t>9V4SVN4JQV</t>
-  </si>
-  <si>
-    <t>mcg</t>
   </si>
   <si>
     <t>INFLUENZA A VIRUS A/Darwin/11/2021 (H3N2) WHOLE</t>
@@ -448,12 +439,6 @@
     <t>Influenza vaccine (surface antigen, inactivated, prepared in cell cultures)</t>
   </si>
   <si>
-    <t>15 mg</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Seqirus Netherlands B.V.</t>
   </si>
   <si>
@@ -471,9 +456,6 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>15 mcg</t>
-  </si>
-  <si>
     <t>xx</t>
   </si>
   <si>
@@ -489,9 +471,6 @@
     <t>Flucelvax Tetra - suspension for injection in pre-filled syringe Influenza vaccine (surface antigen, inactivated, prepared in cell cultures)</t>
   </si>
   <si>
-    <t>hhtttp://asdsadad.com</t>
-  </si>
-  <si>
     <t>flucelvax</t>
   </si>
   <si>
@@ -514,9 +493,6 @@
   </si>
   <si>
     <t>https://spor.ema.europa.eu/rmswi/</t>
-  </si>
-  <si>
-    <t>jkl</t>
   </si>
   <si>
     <t>&lt;p&gt;What is in this leaflet&lt;/p&gt;
@@ -659,12 +635,30 @@
 &lt;p&gt;&lt;strong&gt;What Flucelvax Tetra looks like and contents of the pack&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Flucelvax Tetra is a suspension for injection in a pre-filled syringe (ready to use syringe).&lt;/p&gt;&lt;p&gt;Flucelvax Tetra is a clear to slightly opalescent suspension.&lt;br&gt;A single syringe contains 0.5 ml of suspension for injection.&lt;br&gt;Flucelvax Tetra is available in packs containing 1 pre-filled syringe with or without needle or 10 pre- filled syringes with or without needles.&lt;/p&gt;&lt;p&gt;Not all pack sizes may be marketed.  &lt;/p&gt;</t>
   </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>EU/1/18/1326/001|0xF79CABF272B6A7EEF104DDDA44E82717</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>15 ug</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -702,6 +696,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC9D1D9"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -723,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -735,6 +735,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,7 +1055,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,31 +1108,31 @@
     <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1205,10 +1208,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -1222,10 +1225,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -1236,10 +1239,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -1250,10 +1253,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -1304,10 +1307,10 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1380,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1447,43 +1450,40 @@
     <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1560,10 +1560,10 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1584,16 +1584,16 @@
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1614,16 +1614,16 @@
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1644,16 +1644,16 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1674,16 +1674,16 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1704,10 +1704,10 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1719,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
@@ -1728,10 +1728,10 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1743,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -1752,10 +1752,10 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1767,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
@@ -1776,10 +1776,10 @@
     <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
@@ -1800,10 +1800,10 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1815,7 +1815,7 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
@@ -1838,67 +1838,71 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="11"/>
+    <col min="2" max="2" width="112.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="11"/>
+    <col min="5" max="5" width="11" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="238" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="11">
         <v>100000074063</v>
       </c>
-      <c r="G2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="11">
         <v>200000002150</v>
       </c>
     </row>
@@ -1913,7 +1917,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1995,31 +1999,31 @@
     <row r="2" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -2100,10 +2104,10 @@
     <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2121,13 +2125,13 @@
         <v>29</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L2">
         <v>367061</v>
@@ -2144,7 +2148,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2204,7 +2208,7 @@
         <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -2216,22 +2220,22 @@
         <v>86</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" t="s">
         <v>103</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="T1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="V1" t="s">
         <v>8</v>
@@ -2240,7 +2244,7 @@
     <row r="2" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -2252,22 +2256,22 @@
         <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N2" s="6">
         <v>200000003529</v>
@@ -2279,7 +2283,7 @@
         <v>123456</v>
       </c>
       <c r="Q2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R2" s="6">
         <v>30051000</v>
@@ -2288,10 +2292,10 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2332,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2376,10 +2380,10 @@
     <row r="2" spans="1:11" ht="238" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -2397,10 +2401,10 @@
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/Flucelvax.xlsx
+++ b/ePICreator/Flucelvax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AAD0D-A2BF-7E4D-89FF-C44A5C02D283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4989B3-CE88-6145-8B98-D57D3A4E399C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -652,6 +652,9 @@
   </si>
   <si>
     <t>GBR</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -723,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,8 +739,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1843,66 +1844,63 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="11"/>
-    <col min="2" max="2" width="112.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" style="11"/>
-    <col min="5" max="5" width="11" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="11"/>
+    <col min="2" max="2" width="112.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2">
         <v>100000074063</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2">
         <v>200000002150</v>
       </c>
     </row>
@@ -1916,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1966,7 +1964,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
         <v>81</v>
@@ -2336,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/ePICreator/Flucelvax.xlsx
+++ b/ePICreator/Flucelvax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4989B3-CE88-6145-8B98-D57D3A4E399C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE3ACC-BC07-CC41-90EA-62111CE411FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -656,12 +656,240 @@
   <si>
     <t>country</t>
   </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;  &lt;p style="margin:3.5pt 0pt 0pt 7.1pt; text-align:center; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Prospecto: informaci&amp;#243;n para el usuario&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0.4pt 0pt 0pt 7.1pt; text-align:center; line-height:5pt"&gt;&lt;span style="font-family:Times New Roman; font-size:5pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.1pt; text-align:center; line-height:10pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.1pt; text-align:center; line-height:10pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.1pt; text-align:center; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Flucelvax Tetra - suspensi&amp;#243;n inyectable en jeringa precargada&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.1pt; text-align:center"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Vacuna contra la gripe (ant&amp;#237;geno de superficie, inactivado, preparada en cultivos celulares)&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.4pt 0pt 0pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.8pt 0pt 0pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 31.2pt 0pt 5.9pt; text-align:justify"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Lea todo el prospecto detenidamente antes de empezar a recibir este medicamento, porque contiene&lt;/span&gt;&lt;/strong&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;informaci&amp;#243;n importante para usted.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;-&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Conserve este prospecto, ya que puede tener que volver a leerlo.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.05pt 0pt 0pt 5.9pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;-&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si tiene alguna duda, consulte a su m&amp;#233;dico, farmac&amp;#233;utico o enfermero.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.1pt 14.1pt 0pt 5.95pt; text-indent:-22.4pt; text-align:justify; padding-left:22.4pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;-&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si experimenta efectos adversos, consulte a su m&amp;#233;dico, farmac&amp;#233;utico o enfermero, incluso si se trata de efectos adversos que no aparecen en este prospecto. Ver secci&amp;#243;n 4.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;      &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;  &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Contenido del prospecto&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0.45pt 0pt 0pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 6.3pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;1.&amp;#160;&amp;#160;&amp;#160; Qu&amp;#233; es Flucelvax Tetra y para qu&amp;#233; se utiliza&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 6.3pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;2.&amp;#160;&amp;#160;&amp;#160; Qu&amp;#233; necesita saber antes de empezar a recibir Flucelvax Tetra&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 6.3pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;3.&amp;#160;&amp;#160;&amp;#160; C&amp;#243;mo se administra Flucelvax Tetra&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.05pt 0pt 0pt 6.3pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;4.&amp;#160;&amp;#160;&amp;#160; Posibles efectos adversos&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 6.3pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;5.&amp;#160;&amp;#160;&amp;#160; Conservaci&amp;#243;n de Flucelvax Tetra&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.05pt 0pt 0pt 6.3pt; text-align:justify"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;6.&amp;#160;&amp;#160;&amp;#160; Contenido del envase e informaci&amp;#243;n adicional&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;  &lt;p style="margin:0.6pt 0pt 0pt; line-height:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 11.85pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Flucelvax Tetra es una vacuna contra la gripe. Flucelvax Tetra se prepara en cultivos celulares y, por lo tanto, no contiene huevo.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Cuando una persona recibe la vacuna, el sistema inmunitario (el sistema de defensa natural del organismo) producir&amp;#225; su propia protecci&amp;#243;n frente al virus de la gripe. Ninguno de los componentes de la vacuna puede causar la gripe.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:2.55pt 14.1pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Flucelvax Tetra se usa para prevenir la gripe en adultos y ni&amp;#241;os a partir de los 2 a&amp;#241;os de edad.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:2.55pt 41.05pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;La vacuna va dirigida a cuatro cepas del virus de la gripe siguiendo las recomendaciones de la&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt; vertical-align:0.5pt"&gt;Organizaci&amp;#243;n Mundial de la Salud para la campa&amp;#241;a&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;2023/2024.&lt;/span&gt;&lt;/p&gt;        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;  &lt;p style="margin:0.65pt 0pt 0pt; line-height:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;No debe recibir Flucelvax Tetra:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si es al&amp;#233;rgico a:&lt;/span&gt;&lt;/p&gt;
+    &lt;ul  style="margin:0pt; padding-left:0pt"&gt;
+      &lt;li style="margin:0.05pt 16.9pt 0pt 23.05pt; text-indent:0pt; text-align:justify; padding-left:19.5pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;los principios activos o alguno de los dem&amp;#225;s componentes de esta vacuna (incluidos en la secci&amp;#243;n 6).&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 0pt 0pt 23.05pt; text-indent:0pt; text-align:justify; padding-left:19.5pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;la beta-propiolactona, al bromuro de cetiltrimetilamonio o al polisorbato 80, que son residuos del proceso de fabricaci&amp;#243;n que pueden estar presentes en cantidades m&amp;#237;nimas.&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p style="margin:0.9pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Advertencias y precauciones&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Consulte a su m&amp;#233;dico, farmac&amp;#233;utico o enfermero antes de empezar a recibir Flucelvax Tetra.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;ANTES DE vacunarse&lt;/span&gt;&lt;/p&gt;
+    &lt;ul  style="margin:0pt; padding-left:0pt"&gt;
+      &lt;li style="margin:0.9pt 5pt 0pt 13.36pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;su m&amp;#233;dico o enfermero comprobar&amp;#225; la f&amp;#225;cil disponibilidad de tratamiento m&amp;#233;dico y supervisi&amp;#243;n adecuados en el caso raro de que se produjera una reacci&amp;#243;n anafil&amp;#225;ctica (una reacci&amp;#243;n al&amp;#233;rgica muy grave con s&amp;#237;ntomas como dificultad para respirar, mareos, pulso d&amp;#233;bil y r&amp;#225;pido y erupci&amp;#243;n cut&amp;#225;nea) despu&amp;#233;s de la administraci&amp;#243;n. Esta reacci&amp;#243;n puede presentarse con Flucelvax Tetra, al igual que con todas las vacunas que se inyectan.&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 25.35pt 0pt 13.36pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;debe informar a su m&amp;#233;dico si tiene una enfermedad aguda que cursa con fiebre. Su m&amp;#233;dico puede decidir retrasar su vacunaci&amp;#243;n hasta que la fiebre haya desaparecido.&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="list-style: none; display: inline"&gt;
+        &lt;ul  style="margin:0pt; padding-left:0pt"&gt;
+          &lt;li style="margin:0pt 5.45pt 0pt 13.36pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;debe informar a su m&amp;#233;dico si su sistema inmunitario est&amp;#225; comprometido o si est&amp;#225; recibiendo un tratamiento que afecte al mismo, por ejemplo, medicamento contra el c&amp;#225;ncer (quimioterapia) o corticoides (ver secci&amp;#243;n &amp;#8220;Otros medicamentos y Flucelvax Tetra&amp;#8221;).&lt;/span&gt;&lt;/li&gt;
+        &lt;/ul&gt;
+      &lt;/li&gt;
+      &lt;li style="margin:0pt 0pt 0pt 13.36pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;debe informar a su m&amp;#233;dico si tiene un problema de sangrado o le salen moretones&amp;#160;&amp;#160;&amp;#160;&amp;#160; f&amp;#225;cilmente.&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 4.6pt 0pt 13.36pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;puede desmayarse despu&amp;#233;s de la inyecci&amp;#243;n con una aguja, o incluso antes, por lo tanto, informe a su m&amp;#233;dico o enfermero si se ha desmayado anteriormente con alguna inyecci&amp;#243;n.&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p style="margin:0.7pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 20.05pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Como ocurre con todas las vacunas, Flucelvax Tetra puede no proteger completamente a todas las personas que son vacunadas.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.75pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Otros medicamentos y Flucelvax Tetra&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Informe a su m&amp;#233;dico o enfermero si est&amp;#225; utilizando, ha utilizado recientemente o pudiera tener que utilizar cualquier otro medicamento, incluso los adquiridos sin receta, o si ha recibido recientemente alguna otra vacuna.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.55pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Flucelvax Tetra se puede administrar al mismo tiempo que otras vacunas.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.9pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Embarazo y lactancia&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Embarazo:&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.05pt 14.1pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si est&amp;#225; embarazada, cree que podr&amp;#237;a estar embarazada o tiene intenci&amp;#243;n de quedarse embarazada, consulte a su m&amp;#233;dico. Las vacunas antigripales se pueden administrar en cualquier trimestre del embarazo.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.5pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Lactancia:&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.15pt 7.5pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;El uso de Flucelvax Tetra durante la lactancia no ha sido estudiado. Flucelvax Tetra se puede administrar durante la lactancia.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.75pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Conducci&amp;#243;n y uso de m&amp;#225;quinas&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 14.1pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;La influencia de Flucelvax Tetra sobre la capacidad para conducir y utilizar m&amp;#225;quinas es nula o insignificante.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.75pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Flucelvax Tetra contiene cloruro de sodio y cloruro de potasio&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Esta vacuna contiene menos de 1 mmol de sodio (23 mg) por dosis; esto es, esencialmente &amp;#8220;exento de sodio&amp;#8221;.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Esta vacuna contiene potasio, menos de 1 mmol (39 mg) por dosis; esto es, esencialmente &amp;#8220;exento de potasio&amp;#8221;.&lt;/span&gt;&lt;/p&gt;         &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;  &lt;p style="margin:0.6pt 0pt 0pt; line-height:12pt"&gt;&lt;a name="_Hlk142925114"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 14.1pt 0pt 5.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Su m&amp;#233;dico o enfermero le administrar&amp;#225; Flucelvax Tetra en forma de inyecci&amp;#243;n en el m&amp;#250;sculo de la parte superior del brazo (m&amp;#250;sculo deltoides).&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.95pt 0pt 0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:1.6pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt; vertical-align:-0.5pt"&gt;Adultos y ni&amp;#241;os a partir de 2 a&amp;#241;os de edad:&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.3pt 0pt 0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Una dosis de 0,5 ml&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt; background-color:#ffff00"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si su hijo es menor de 9 a&amp;#241;os y nunca ha sido vacunado contra la gripe, se le debe administrar una segunda dosis despu&amp;#233;s, de al menos, 4 semanas.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;         &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;  &lt;p style="margin:0.4pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 13.75pt 0pt 7.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Al igual que todos los medicamentos, este medicamento puede producir efectos adversos, aunque no todas las personas los sufran.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Los siguientes efectos adversos se han notificado durante los ensayos cl&amp;#237;nicos y durante el uso general:&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.9pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Efectos adversos muy graves&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Consulte inmediatamente con su m&amp;#233;dico o acuda al servicio de urgencias del hospital m&amp;#225;s cercano si presenta el siguiente efecto adverso &amp;#8211; puede necesitar urgentemente atenci&amp;#243;n m&amp;#233;dica u hospitalizaci&amp;#243;n:&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.85pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 20.75pt 0pt 7.95pt; text-indent:-20.4pt; text-align:justify; line-height:115%; padding-left:20.4pt; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#8226;&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Dificultad para respirar, mareos, pulso d&amp;#233;bil y r&amp;#225;pido junto con erupci&amp;#243;n cut&amp;#225;nea, que son los s&amp;#237;ntomas de una reacci&amp;#243;n anafil&amp;#225;ctica (una reacci&amp;#243;n al&amp;#233;rgica muy grave)&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.75pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Efectos adversos graves&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Informe inmediatamente a su m&amp;#233;dico si presenta cualquiera de los efectos adversos siguientes &amp;#8211; puede necesitar atenci&amp;#243;n m&amp;#233;dica:&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;ul  style="margin:0pt; padding-left:0pt"&gt;
+      &lt;li style="margin:0pt 0pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Se siente d&amp;#233;bil, tiene dificultades para moverse o presenta entumecimiento u hormigueo en las extremidades. Estos pueden ser s&amp;#237;ntomas del s&amp;#237;ndrome de Guillain-Barr&amp;#233; (SGB), una enfermedad autoinmune causada por el propio sistema inmunitario del organismo&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 0pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Hinchaz&amp;#243;n extensa del miembro en el que se ha inyectado&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p style="margin:0.45pt 0pt 0pt; text-align:justify; line-height:115%; font-size:14pt"&gt;&lt;span style="font-family:Times New Roman; font-size:14pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Efectos adversos leves&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Muy frecuentes&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;(pueden afectar a m&amp;#225;s de 1 de cada 10 personas):&lt;/span&gt;&lt;/p&gt;
+    &lt;ul  style="margin:0pt; padding-left:0pt"&gt;
+      &lt;li style="margin:1.1pt 11.75pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Dolor en la zona de inyecci&amp;#243;n, cardenales, enrojecimiento y endurecimiento o hinchaz&amp;#243;n en la zona de inyecci&amp;#243;n&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 11.75pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Dolor de cabeza&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 11.75pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Dolor muscular&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 11.75pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Cansancio&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 11.75pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;P&amp;#233;rdida de apetito&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 11.75pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Irritabilidad (notificada solo en ni&amp;#241;os de 2 a &amp;#60; 6 a&amp;#241;os)&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 11.75pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Somnolencia (notificada solo en ni&amp;#241;os de 2 a &amp;#60; 6 a&amp;#241;os)&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p style="margin:0.1pt 3.2pt 0pt 7.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;En los pacientes de edad avanzada fueron frecuentes el endurecimiento o la hinchaz&amp;#243;n en el lugar de la inyecci&amp;#243;n, el dolor de cabeza, el dolor muscular y la fatiga.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.95pt 0pt 0pt 7.1pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Los cardenales en el lugar de la inyecci&amp;#243;n fueron frecuentes en adultos, ancianos y ni&amp;#241;os de 9 a &amp;#60; 18 a&amp;#241;os.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.95pt 0pt 0pt 7.1pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;El dolor de cabeza fue frecuente en ancianos.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.95pt 0pt 0pt 7.1pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;La p&amp;#233;rdida de apetito fue frecuente en adultos, ancianos y ni&amp;#241;os de 9 a &amp;#60; 18 a&amp;#241;os.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:1.6pt 0pt 0pt 7.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:1.6pt 0pt 0pt 7.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Frecuentes&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;(pueden afectar hasta 1 de cada 10 personas):&lt;/span&gt;&lt;/p&gt;
+    &lt;ul  style="margin:0pt; padding-left:0pt"&gt;
+      &lt;li style="margin:0.55pt 0pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;N&amp;#225;useas, v&amp;#243;mitos, diarrea&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 0pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Dolor articular&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 0pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Tiritona&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 0pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Cambios en los h&amp;#225;bitos alimenticios (notificados solo en ni&amp;#241;os de 2 a &amp;#60; 6 a&amp;#241;os)&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 0pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Fiebre (&amp;#62; 38 &amp;#176;C)&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p style="margin:0.55pt 0pt 0pt 7.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Los v&amp;#243;mitos fueron poco frecuentes en los pacientes de edad avanzada&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.55pt 0pt 0pt 7.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;La fiebre fue infrecuente en adultos y ancianos&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.55pt 0pt 0pt 7.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Frecuencia no conocida&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;(no puede estimarse a partir de los datos disponibles):&lt;/span&gt;&lt;/p&gt;
+    &lt;ul  style="margin:0pt; padding-left:0pt"&gt;
+      &lt;li style="margin:0.7pt 0pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Sensaci&amp;#243;n de hormigueo y&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;entumecimiento (parestesia)&lt;/span&gt;&lt;/li&gt;
+      &lt;li style="margin:0pt 0pt 0pt 15.95pt; text-indent:0pt; text-align:justify; padding-left:12.4pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Reacciones cut&amp;#225;neas generalizadas incluyendo picor, ampollas en la piel (prurito, urticaria) o erupci&amp;#243;n cut&amp;#225;nea inespec&amp;#237;fica&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p style="margin:0.7pt 0pt 0pt 7.95pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:1.6pt 0pt 0pt 7.95pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Comunicaci&amp;#243;n de efectos adversos&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si experimenta cualquier tipo de efecto adverso, consulte a su profesional sanitario, incluso si se trata de posibles efectos adversos que no aparecen en este prospecto.&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Tambi&amp;#233;n puede comunicarlos directamente a trav&amp;#233;s del Sistema Espa&amp;#241;ol de Farmacovigilancia de Medicamentos de Uso Humano en&lt;/span&gt; &lt;a href="http://www.notificaRAM.es"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt; color:#0000ff; background-color:#ffffff"&gt;www.notificaRAM.es&lt;/span&gt;&lt;/a&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;.&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;M&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;ediante la comunicaci&amp;#243;n de efectos adversos usted puede contribuir a proporcionar m&amp;#225;s informaci&amp;#243;n sobre la seguridad de este medicamento.&lt;/span&gt;&lt;/p&gt;         &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;  &lt;p style="margin:2.45pt 14.1pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Mantener este medicamento fuera de la vista y del alcance de los ni&amp;#241;os.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:2.45pt 14.1pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:2.45pt 14.1pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Conservar en nevera (entre 2 &amp;#176;C y 8 &amp;#176;C). No congelar.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt; vertical-align:0.5pt"&gt;Mantener la jeringa precargada en el embalaje exterior para protegerla de la luz.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.55pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 3.15pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;No utilice esta vacuna despu&amp;#233;s de la fecha de caducidad que aparece en la etiqueta y en la caja despu&amp;#233;s de EXP/CAD. La fecha de caducidad es el &amp;#250;ltimo d&amp;#237;a del mes que se indica.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.8pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 8.2pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Los medicamentos no se deben tirar por los desag&amp;#252;es ni a la basura. Pregunte a su farmac&amp;#233;utico c&amp;#243;mo deshacerse de los envases y de los medicamentos que ya no necesita. De esta forma, ayudar&amp;#225; a proteger el medio ambiente.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;  &lt;p style="margin:0.55pt 0pt 0pt; line-height:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Composici&amp;#243;n de Flucelvax Tetra&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0.4pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;ul  style="margin:0pt; padding-left:0pt"&gt;
+      &lt;li style="margin:0pt 14.1pt 0pt 11.96pt; text-indent:0pt; text-align:justify; line-height:115%; padding-left:9.34pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Los principios activos son ant&amp;#237;genos de superficie del virus de la gripe (hemaglutinina y neuraminidasa), inactivados, de las siguientes cepas*:&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p style="margin:0.5pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;a name="_Hlk66283421"&gt;&lt;/a&gt;&lt;a name="_Hlk66283267"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Cepa similar a&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;A/Wisconsin/67/2022 (H1N1)pdm09&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;(A/Georgia/12/2022 CVR-167)&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;15 microgramos HA**&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;a name="_Hlk66283440"&gt;&lt;/a&gt;&lt;a name="_Hlk66283292"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Cepa similar a&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;A/Darwin/6/2021 (H3N2)&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;(A/Darwin/11/2021, wild type)&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;15 microgramos HA**&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Cepa similar a B/Austria/1359417/2021&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;(&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Singapore/WUH4618/2021&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;, wild type&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;)&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;15 microgramos HA**&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.55pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Cepa similar a B/Phuket/3073/2013 (B/Singapore/INFTT-16-0610/2016, wild type)&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.55pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;15 microgramos HA**&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.55pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;por dosis de 0,5 ml&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.05pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;&amp;#8230;.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.05pt 26.05pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;*&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;propagadas en c&amp;#233;lulas Madin Darby Canine Kidney (MDCK) (se trata de un cultivo celular especial en el que crece el virus de la gripe)&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 21.3pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;** hemaglutinina&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.85pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 3.3pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Esta vacuna cumple con la recomendaci&amp;#243;n de la Organizaci&amp;#243;n Mundial de la Salud (OMS) (hemisferio norte) y con la recomendaci&amp;#243;n de la UE para la CAMPA&amp;#209;A 2023/2024.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.7pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;ul  style="margin:0pt; padding-left:0pt"&gt;
+      &lt;li style="margin:0pt 14.25pt 0pt 15.76pt; text-indent:0pt; text-align:justify; line-height:115%; padding-left:12.59pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Los dem&amp;#225;s componentes son: cloruro de sodio, cloruro de potasio, cloruro de magnesio hexahidrato, fosfato dis&amp;#243;dico dihidrato, dihidrogenofosfato de potasio y agua para preparaciones inyectables.&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p style="margin:0.75pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Aspecto del producto y contenido del envase&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0.6pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 14.1pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Flucelvax Tetra es una suspensi&amp;#243;n inyectable en jeringa precargada (jeringa lista para usar). Flucelvax Tetra es una suspensi&amp;#243;n de transparente a ligeramente opalescente.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Cada jeringa individual contiene 0,5 ml de suspensi&amp;#243;n inyectable.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.1pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Flucelvax Tetra est&amp;#225; disponible en envases de 1 jeringa precargada con o sin aguja o 10 jeringas&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 7.1pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;precargadas con o sin agujas.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Puede que solamente est&amp;#233;n comercializados algunos tama&amp;#241;os de envases.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.9pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Titular de la autorizaci&amp;#243;n de comercializaci&amp;#243;n y responsable de la fabricaci&amp;#243;n&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 14.1pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Seqirus Netherlands B.V.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Paasheuvelweg 28&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;1105BJ Amsterdam&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 0pt 0pt 5.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Pa&amp;#237;ses Bajos&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.85pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 11.4pt 0pt 0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Pueden solicitar m&amp;#225;s informaci&amp;#243;n respecto a este medicamento dirigi&amp;#233;ndose al representante local del titular de la autorizaci&amp;#243;n de comercializaci&amp;#243;n:&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 11.4pt 0pt 6.9pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Seqirus Spain, S.L., Barcelona&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Tel: 937 817 884&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.75pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Fecha de la &amp;#250;ltima revisi&amp;#243;n de este prospecto: 07/2023&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Otras fuentes de informaci&amp;#243;n&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p style="margin:0.6pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 3.8pt 0pt 0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;La informaci&amp;#243;n detallada de este medicamento est&amp;#225; disponible en la p&amp;#225;gina web de la Agencia Europea de Medicamentos:&lt;/span&gt; &lt;a href="http://www.ema.europa.eu/"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;http://www.ema.europa.eu/.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+    &lt;p style="margin:0.55pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 18.1pt 0pt 0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;------------------------------------------------------------------------------------------------------------- Esta informaci&amp;#243;n est&amp;#225; destinada &amp;#250;nicamente a profesionales del sector sanitario:&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.5pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 4.75pt 0pt 0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Debe estar siempre f&amp;#225;cilmente disponible el tratamiento m&amp;#233;dico y la supervisi&amp;#243;n apropiados en caso de un episodio anafil&amp;#225;ctico, que puede aparecer raramente despu&amp;#233;s de administrar la vacuna.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.8pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt 50.45pt 0pt 0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Agitar antes de usar. Despu&amp;#233;s de agitar, el aspecto normal de la vacuna es una suspensi&amp;#243;n de transparente a ligeramente opalescente.&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0.55pt 0pt 0pt; text-align:justify; line-height:115%; font-size:12pt"&gt;&lt;span style="font-family:Times New Roman; font-size:12pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Se debe inspeccionar visualmente la vacuna en busca de part&amp;#237;culas extra&amp;#241;as o cambios de color antes de la administraci&amp;#243;n. Si se observan part&amp;#237;culas extra&amp;#241;as y/o cualquier variaci&amp;#243;n del aspecto f&amp;#237;sico, no administre la vacuna.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>MedicinalProduct</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -705,13 +933,26 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -726,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -739,6 +980,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1147,7 +1389,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1274,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1313,9 +1555,27 @@
       <c r="D2" t="s">
         <v>143</v>
       </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1382,9 +1642,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1485,6 +1745,44 @@
       </c>
       <c r="O2" s="5" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2334,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2371,8 +2669,8 @@
       <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
-        <v>8</v>
+      <c r="K1" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="238" x14ac:dyDescent="0.2">
@@ -2403,6 +2701,9 @@
       </c>
       <c r="J2" t="s">
         <v>164</v>
+      </c>
+      <c r="K2" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
